--- a/analysis_scripts_iclamp/wky60.xlsx
+++ b/analysis_scripts_iclamp/wky60.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="237" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -100,6 +100,39 @@
   </si>
   <si>
     <t>Sweep_25</t>
+  </si>
+  <si>
+    <t>2023_04_13_02_0003.abf</t>
+  </si>
+  <si>
+    <t>2023_02_02_05_0007.abf</t>
+  </si>
+  <si>
+    <t>2024_08_07_02_0006.abf</t>
+  </si>
+  <si>
+    <t>2024_08_07_02_0007.abf</t>
+  </si>
+  <si>
+    <t>2024_08_07_02_0008.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_01_0006.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_01_0007.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_01_0008.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_02_0006.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_02_0007.abf</t>
+  </si>
+  <si>
+    <t>2023_01_12_02_0008.abf</t>
   </si>
 </sst>
 </file>
@@ -145,7 +178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z4"/>
+  <dimension ref="A1:Z5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -261,7 +294,7 @@
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
@@ -279,47 +312,69 @@
         <v>0</v>
       </c>
       <c r="G2" s="0">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H2" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I2" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="J2" s="0">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="K2" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="L2" s="0">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="M2" s="0">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O2" s="0">
-        <v>2</v>
-      </c>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="0">
+        <v>0</v>
+      </c>
+      <c r="R2" s="0">
+        <v>0</v>
+      </c>
+      <c r="S2" s="0">
+        <v>0</v>
+      </c>
+      <c r="T2" s="0">
+        <v>0</v>
+      </c>
+      <c r="U2" s="0">
+        <v>0</v>
+      </c>
+      <c r="V2" s="0">
+        <v>0</v>
+      </c>
+      <c r="W2" s="0">
+        <v>0</v>
+      </c>
+      <c r="X2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="B3" s="0">
         <v>0</v>
@@ -331,70 +386,70 @@
         <v>0</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" s="0">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G3" s="0">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I3" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J3" s="0">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="M3" s="0">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="N3" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="O3" s="0">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="P3" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R3" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S3" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T3" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U3" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="V3" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W3" s="0">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X3" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -411,70 +466,150 @@
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="F4" s="0">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="I4" s="0">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="K4" s="0">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="L4" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="M4" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="N4" s="0">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="O4" s="0">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="P4" s="0">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="R4" s="0">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="S4" s="0">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="T4" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="U4" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="V4" s="0">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="W4" s="0">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="X4" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="0">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="0">
-        <v>29</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="0">
+        <v>0</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0">
+        <v>0</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H5" s="0">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I5" s="0">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="J5" s="0">
+        <v>7.333333333333333</v>
+      </c>
+      <c r="K5" s="0">
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="L5" s="0">
+        <v>10.666666666666666</v>
+      </c>
+      <c r="M5" s="0">
+        <v>11.666666666666666</v>
+      </c>
+      <c r="N5" s="0">
+        <v>12.666666666666666</v>
+      </c>
+      <c r="O5" s="0">
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P5" s="0">
+        <v>13.666666666666666</v>
+      </c>
+      <c r="Q5" s="0">
+        <v>14.666666666666666</v>
+      </c>
+      <c r="R5" s="0">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="S5" s="0">
+        <v>15.666666666666666</v>
+      </c>
+      <c r="T5" s="0">
+        <v>17.333333333333332</v>
+      </c>
+      <c r="U5" s="0">
+        <v>18.666666666666668</v>
+      </c>
+      <c r="V5" s="0">
+        <v>16.333333333333332</v>
+      </c>
+      <c r="W5" s="0">
+        <v>20.5</v>
+      </c>
+      <c r="X5" s="0">
+        <v>21</v>
+      </c>
+      <c r="Y5" s="0">
+        <v>22</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>22.5</v>
       </c>
     </row>
   </sheetData>
